--- a/99_その他/14_レビュー議事録(設計).xlsx
+++ b/99_その他/14_レビュー議事録(設計).xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADB39C4E-FD1D-451E-9872-6E1FA810AA4A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0511F98-C4A9-480E-BF25-4BF0B9C9B0EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="885" windowWidth="17565" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="7" r:id="rId1"/>
     <sheet name="レビュー結果" sheetId="8" r:id="rId2"/>
-    <sheet name="概要サンプル" sheetId="4" r:id="rId3"/>
-    <sheet name="レビュー結果サンプル" sheetId="5" r:id="rId4"/>
+    <sheet name="レビュー結果サンプル" sheetId="5" r:id="rId3"/>
+    <sheet name="概要サンプル" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,9 +26,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
+  <si>
+    <t>会議名</t>
+    <rPh sb="0" eb="2">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日時</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所</t>
+    <rPh sb="0" eb="2">
+      <t>バショカイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復N 第n回レビュー</t>
+    <rPh sb="0" eb="2">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出席者</t>
+    <rPh sb="0" eb="3">
+      <t>シュッセキシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書記</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工程</t>
+    <rPh sb="0" eb="2">
+      <t>コウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開催目的</t>
+    <rPh sb="0" eb="2">
+      <t>カイサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー対象</t>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指摘件数</t>
+    <rPh sb="0" eb="2">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総指摘件数</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象成果物</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セイカブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発言の種類</t>
+    <rPh sb="0" eb="2">
+      <t>ハツゲン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発言内容</t>
+    <rPh sb="0" eb="2">
+      <t>ハツゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発言者</t>
+    <rPh sb="0" eb="3">
+      <t>ハツゲンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答または対策</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイサク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -42,21 +198,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>発言者</t>
-    <rPh sb="0" eb="3">
-      <t>ハツゲンシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回答または対策</t>
-    <rPh sb="0" eb="2">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>タイサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>DFD2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指摘</t>
+  </si>
+  <si>
+    <t>プロセス「2.2発注する」がデータ「発注商品」を加工していない</t>
   </si>
   <si>
     <t>山田</t>
@@ -66,189 +215,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>指摘</t>
-  </si>
-  <si>
-    <t>対象成果物</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>セイカブツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会議名</t>
-    <rPh sb="0" eb="2">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日時</t>
-    <rPh sb="0" eb="2">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>開催目的</t>
-    <rPh sb="0" eb="2">
-      <t>カイサイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>モクテキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出席者</t>
-    <rPh sb="0" eb="3">
-      <t>シュッセキシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー対象</t>
-    <rPh sb="4" eb="6">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指摘件数</t>
-    <rPh sb="0" eb="2">
-      <t>シテキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>構造化分析</t>
-  </si>
-  <si>
-    <t>プロセス「2.2発注する」がデータ「発注商品」を加工していない</t>
-  </si>
-  <si>
-    <t>DFD2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プロセス「2.2発注する」の粒度を見直す</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>田口</t>
-    <rPh sb="0" eb="2">
-      <t>タグチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>田中、山田、藤田、田口</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>構造化設計へ移行するための課題・対応策を明確にする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビューア</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山田、藤田</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>フジタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>総指摘件数</t>
-    <rPh sb="0" eb="1">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>シテキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DFD2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロセス仕様「2.1 補充発注する」</t>
-    <rPh sb="4" eb="6">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロセス仕様「2.2 検収する」</t>
-    <rPh sb="4" eb="6">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>田中</t>
-    <rPh sb="0" eb="2">
-      <t>タナカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>書記</t>
-    <rPh sb="0" eb="2">
-      <t>ショキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>工程</t>
-    <rPh sb="0" eb="2">
-      <t>コウテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>発言の種類</t>
-    <rPh sb="0" eb="2">
-      <t>ハツゲン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>発言内容</t>
-    <rPh sb="0" eb="2">
-      <t>ハツゲン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -262,17 +229,6 @@
     <rPh sb="6" eb="7">
       <t>カイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>場所</t>
-    <rPh sb="0" eb="2">
-      <t>バショカイジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Florida</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -284,225 +240,325 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>石川、山浦、太田、原田、吉富</t>
+    <t>Florida</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中、山田、藤田、田口</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田、藤田</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フジタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田口</t>
+    <rPh sb="0" eb="2">
+      <t>タグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構造化分析</t>
+  </si>
+  <si>
+    <t>構造化設計へ移行するための課題・対応策を明確にする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセス仕様「2.1 補充発注する」</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセス仕様「2.2 検収する」</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/06/09 (火)
+14:30-14:50</t>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>room C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計</t>
+  </si>
+  <si>
+    <t>クラス図</t>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンス図</t>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非機能要求一覧</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石川</t>
     <rPh sb="0" eb="2">
       <t>イシカワ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国正、石川、山浦、太田、原田、吉富(敬称略)</t>
+    <rPh sb="0" eb="2">
+      <t>クニマサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国正</t>
+    <rPh sb="0" eb="2">
+      <t>クニマサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国正(敬称略)</t>
+    <rPh sb="0" eb="2">
+      <t>クニマサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石川、山浦、太田、原田、吉富</t>
+  </si>
+  <si>
+    <t>テスト仕様書</t>
+    <rPh sb="3" eb="6">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非機能要求一覧</t>
+    <rPh sb="0" eb="5">
+      <t>ヒキノウヨウキュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>refereeクラスは抽象クラスならabstractを表示すること</t>
+    <rPh sb="11" eb="13">
+      <t>チュウショウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性の名前は小文字から始めること</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
     <rPh sb="3" eb="5">
-      <t>ヤマウラ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>オオタ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ハラダ</t>
-    </rPh>
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setAnswerCardの引数はCard cardではない</t>
+    <rPh sb="14" eb="16">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正する</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SuitとCardの集約を逆にすること</t>
+    <rPh sb="10" eb="12">
+      <t>シュウヤク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ギャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RefereeとCardStackの関連が必要なので、Refereeを作成する際にCardStackクラス型の引数をいれること</t>
+    <rPh sb="18" eb="20">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>checkNumberに変更</t>
     <rPh sb="12" eb="14">
-      <t>ヨシトミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>吉富</t>
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6/9
+15:10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考にする（本反復では適用しない）</t>
     <rPh sb="0" eb="2">
-      <t>ヨシトミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>計画立案</t>
-  </si>
-  <si>
-    <t>流れと書き方が適切かどうか確認する</t>
-    <rPh sb="0" eb="1">
-      <t>ナガ</t>
-    </rPh>
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N-0402の「テストのしやすさ」として以下のことを参考にするとよい
+・関係が深いクラスごとにパッケージを分ける
+・双方向の依存にならないようにする</t>
+    <rPh sb="20" eb="22">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>ソウホウコウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>イソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>removeNumberという名前が操作内容を予想しづらいので考えること</t>
+    <rPh sb="15" eb="17">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヨソウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　6/15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス図
+シーケンス図</t>
     <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>テキセツ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー対象</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ガントチャート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今回は、反復１だけでよい。</t>
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計の合否判定：合格</t>
     <rPh sb="0" eb="2">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ハンプク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>反復１～３すべて記入しているが、今回は反復１のみでよい。</t>
-    <rPh sb="0" eb="2">
-      <t>ハンプク</t>
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴウヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンテイ</t>
     </rPh>
     <rPh sb="8" eb="10">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ハンプク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>工程がクラス図、オブジェクト図の順になっているが、逆である。</t>
-    <rPh sb="0" eb="2">
-      <t>コウテイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ギャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オブジェクト図、クラス図の順にする。</t>
-    <rPh sb="6" eb="7">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ガントチャートの作成により、反復１にかかる日程が3.5日から3日変更となった。
-変更が必要。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>反復計画書</t>
-    <rPh sb="0" eb="2">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ケイカクショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>反復計画書の日数を変更する。</t>
-    <rPh sb="0" eb="2">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ケイカクショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニッスウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>畔上(敬称略)</t>
-    <rPh sb="0" eb="2">
-      <t>アゼガミ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ケイショウリャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RoomA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>畔上</t>
-    <rPh sb="0" eb="2">
-      <t>アゼガミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>発言者(敬称略)</t>
-    <rPh sb="0" eb="3">
-      <t>ハツゲンシャ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ケイショウリャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>反復計画書</t>
-    <rPh sb="0" eb="5">
-      <t>ハンプクケイカクショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>畔上、石川、山浦、太田、原田、吉富(敬称略)</t>
-    <rPh sb="3" eb="5">
-      <t>イシカワ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヤマウラ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>オオタ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハラダ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヨシトミ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ケイショウリャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2020/06/09 (火)
-14:35-14:45</t>
-    <rPh sb="12" eb="13">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>反復2 第レビュー</t>
-    <rPh sb="0" eb="2">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ダイ</t>
+      <t>ゴウカク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -851,9 +907,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -872,22 +925,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -984,16 +1040,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>798634</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1255101</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>564173</xdr:rowOff>
+      <xdr:rowOff>674810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>344365</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>102577</xdr:rowOff>
+      <xdr:colOff>1609724</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>41764</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1008,8 +1064,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1978269" y="732692"/>
-          <a:ext cx="3758711" cy="798635"/>
+          <a:off x="3245826" y="846260"/>
+          <a:ext cx="3755048" cy="805229"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst/>
@@ -1384,45 +1440,45 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="2" max="2" width="23.625" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="29.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="28" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="29"/>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>33</v>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="B2" s="31"/>
-      <c r="C2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>50</v>
+      <c r="C2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -1430,7 +1486,7 @@
     </row>
     <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -1438,135 +1494,147 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="26" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="30" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
+      <c r="A7" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="26" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="22"/>
-      <c r="C10" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="16">
-        <v>2</v>
+      <c r="C10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="14">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="21" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B11" s="22"/>
-      <c r="C11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="C11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-    </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
+      <c r="A13" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="B13" s="22"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="21"/>
       <c r="B14" s="22"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="21"/>
       <c r="B15" s="22"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
       <c r="B16" s="22"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
       <c r="B17" s="22"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="18">
+      <c r="C20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="16">
         <f>IF(SUM(D10:D19)=0,"",SUM(D10:D19))</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1596,7 +1664,7 @@
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"計画立案,要求分析,構造化分析,構造化設計,実装／単体テスト,テスト,その他"</formula1>
+      <formula1>"計画立案,要求分析,分析,設計,受け入れ,反復終了,その他"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -1611,141 +1679,203 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="58.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
@@ -1897,11 +2027,280 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="37.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="9">
+        <v>40686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C23" xr:uid="{00000000-0002-0000-0300-000000000000}">
+      <formula1>"指摘,質問,その他"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.28999999999999998" right="0.28999999999999998" top="0.8" bottom="0.98425196850393704" header="0.39" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -1915,32 +2314,32 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="28" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="29"/>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>33</v>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B2" s="31"/>
-      <c r="C2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="14"/>
+      <c r="C2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -1948,7 +2347,7 @@
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -1956,139 +2355,139 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="26" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="30" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
+      <c r="A7" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>13</v>
+      <c r="A8" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B10" s="22"/>
-      <c r="C10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="C10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="21" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B11" s="22"/>
-      <c r="C11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="C11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="21" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B12" s="22"/>
-      <c r="C12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="16">
+      <c r="C12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="21"/>
       <c r="B14" s="22"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="21"/>
       <c r="B15" s="22"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
       <c r="B16" s="22"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
       <c r="B17" s="22"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="18">
+      <c r="C20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="16">
         <f>IF(SUM(D10:D19)=0,"",SUM(D10:D19))</f>
         <v>4</v>
       </c>
@@ -2127,275 +2526,6 @@
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="10">
-        <v>40686</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C23" xr:uid="{00000000-0002-0000-0300-000000000000}">
-      <formula1>"指摘,質問,その他"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.28999999999999998" right="0.28999999999999998" top="0.8" bottom="0.98425196850393704" header="0.39" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2601,15 +2731,8 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2623,7 +2746,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35257687-80B4-4EEC-ACB3-8A72E0121104}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01D29276-C38C-4646-B92B-8C8DCC907D95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>

--- a/99_その他/14_レビュー議事録(設計).xlsx
+++ b/99_その他/14_レビュー議事録(設計).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0511F98-C4A9-480E-BF25-4BF0B9C9B0EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F638451A-919E-44C1-9460-703B4CBE3571}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="67">
   <si>
     <t>会議名</t>
     <rPh sb="0" eb="2">
@@ -419,13 +419,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>修正する</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SuitとCardの集約を逆にすること</t>
     <rPh sb="10" eb="12">
       <t>シュウヤク</t>
@@ -462,11 +455,6 @@
     <rPh sb="12" eb="14">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6/9
-15:10</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -559,6 +547,70 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ゴウカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6/9
+15:30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abstractに変更する</t>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールド名を小文字から始まる名前に変更する</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関連端を修正する</t>
+    <rPh sb="0" eb="2">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setAnswerCardを引数なしにする</t>
+    <rPh sb="14" eb="16">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Refereeクラスのコンストラクタ内でCardStack型のオブジェクトを引数で渡すようにする</t>
+    <rPh sb="18" eb="19">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ワタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1440,7 +1492,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
@@ -1527,7 +1579,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -1679,8 +1731,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1727,16 +1779,16 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1756,10 +1808,10 @@
         <v>44</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1779,10 +1831,10 @@
         <v>44</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -1796,16 +1848,16 @@
         <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1813,7 +1865,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
@@ -1825,10 +1877,10 @@
         <v>44</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1836,22 +1888,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -1865,16 +1917,16 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
